--- a/reports/resnet18_23_no_MMTM/prediction/1/probability_test_1.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/1/probability_test_1.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4764298796653748</v>
+        <v>0.6582528352737427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52357017993927</v>
+        <v>0.3417471349239349</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3453971445560455</v>
+        <v>0.3558950424194336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6546028852462769</v>
+        <v>0.6441049575805664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9494510889053345</v>
+        <v>0.8557726740837097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05054888874292374</v>
+        <v>0.1442272961139679</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9861065149307251</v>
+        <v>0.9044946432113647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01389343291521072</v>
+        <v>0.09550534933805466</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4074539244174957</v>
+        <v>0.5774292945861816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5925461053848267</v>
+        <v>0.422570675611496</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9725901484489441</v>
+        <v>0.8128988146781921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0274098664522171</v>
+        <v>0.1871012002229691</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9730226993560791</v>
+        <v>0.7912715077400208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02697733789682388</v>
+        <v>0.2087285220623016</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9837383031845093</v>
+        <v>0.82310950756073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01626170799136162</v>
+        <v>0.1768905073404312</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1316457092761993</v>
+        <v>0.1114944517612457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.868354320526123</v>
+        <v>0.8885055184364319</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8562062978744507</v>
+        <v>0.7591195702552795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1437937021255493</v>
+        <v>0.2408803999423981</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.263520210981369</v>
+        <v>0.210868775844574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7364798188209534</v>
+        <v>0.789131224155426</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1989700198173523</v>
+        <v>0.5441142916679382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8010299205780029</v>
+        <v>0.4558857083320618</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.506411075592041</v>
+        <v>0.5451074838638306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4935890138149261</v>
+        <v>0.4548925757408142</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2654948234558105</v>
+        <v>0.4147586822509766</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7345051765441895</v>
+        <v>0.5852412581443787</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1668937653303146</v>
+        <v>0.1538640707731247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8331062793731689</v>
+        <v>0.8461359739303589</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3394122719764709</v>
+        <v>0.3343997001647949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6605876684188843</v>
+        <v>0.6656002998352051</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1362613886594772</v>
+        <v>0.316427618265152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8637386560440063</v>
+        <v>0.6835723519325256</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1384143680334091</v>
+        <v>0.1019617319107056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8615856170654297</v>
+        <v>0.8980382680892944</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1176777705550194</v>
+        <v>0.0966593325138092</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8823222517967224</v>
+        <v>0.9033406376838684</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2373515367507935</v>
+        <v>0.1805332899093628</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7626484632492065</v>
+        <v>0.8194667100906372</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2709114551544189</v>
+        <v>0.1264052838087082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7290884852409363</v>
+        <v>0.8735947608947754</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07666820287704468</v>
+        <v>0.1301227957010269</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9233317971229553</v>
+        <v>0.8698772192001343</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
